--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prano\Desktop\Multichat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D904058-87AE-47F3-A59A-794BDDA5F937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1647E04-0B24-42BC-816B-CC2C7C3D19D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{33DA8615-2D48-42A1-AF39-9013AFEE604D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{F530DC60-595E-48C7-8FD9-7CD4ECDCA3E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Book1" sheetId="1" r:id="rId1"/>
@@ -889,12 +889,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE9AD15-2980-491B-A18D-106801CD5415}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526AB387-DC4C-4437-9D21-AC76FE911FBF}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.08984375" customWidth="1"/>
+    <col min="2" max="2" width="29.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
